--- a/2020_subject.xlsx
+++ b/2020_subject.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
+  <si>
+    <t>Unnamed: 0</t>
+  </si>
   <si>
     <t>周数</t>
   </si>
@@ -755,20 +758,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:EL24"/>
+  <dimension ref="A1:EM24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:142">
+    <row r="1" spans="1:143">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -786,11 +789,11 @@
       <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1">
         <v>2</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>8</v>
@@ -807,11 +810,11 @@
       <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="Q1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="1">
         <v>3</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>14</v>
@@ -828,11 +831,11 @@
       <c r="W1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="1">
+      <c r="X1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y1" s="1">
         <v>4</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>20</v>
@@ -849,11 +852,11 @@
       <c r="AD1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AE1" s="1">
+      <c r="AE1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF1" s="1">
         <v>5</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="AG1" s="1" t="s">
         <v>26</v>
@@ -870,11 +873,11 @@
       <c r="AK1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AL1" s="1">
+      <c r="AL1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM1" s="1">
         <v>6</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="AN1" s="1" t="s">
         <v>32</v>
@@ -891,11 +894,11 @@
       <c r="AR1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AS1" s="1">
+      <c r="AS1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AT1" s="1">
         <v>7</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="AU1" s="1" t="s">
         <v>38</v>
@@ -912,11 +915,11 @@
       <c r="AY1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AZ1" s="1">
+      <c r="AZ1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="BA1" s="1">
         <v>8</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="BB1" s="1" t="s">
         <v>44</v>
@@ -933,11 +936,11 @@
       <c r="BF1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="BG1" s="1">
+      <c r="BG1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="BH1" s="1">
         <v>9</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="BI1" s="1" t="s">
         <v>50</v>
@@ -954,11 +957,11 @@
       <c r="BM1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BN1" s="1">
+      <c r="BN1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BO1" s="1">
         <v>10</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="BP1" s="1" t="s">
         <v>56</v>
@@ -975,11 +978,11 @@
       <c r="BT1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BU1" s="1">
+      <c r="BU1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BV1" s="1">
         <v>11</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="BW1" s="1" t="s">
         <v>62</v>
@@ -996,11 +999,11 @@
       <c r="CA1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="CB1" s="1">
+      <c r="CB1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="CC1" s="1">
         <v>12</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="CD1" s="1" t="s">
         <v>68</v>
@@ -1017,11 +1020,11 @@
       <c r="CH1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="CI1" s="1">
+      <c r="CI1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="CJ1" s="1">
         <v>13</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="CK1" s="1" t="s">
         <v>74</v>
@@ -1038,11 +1041,11 @@
       <c r="CO1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="CP1" s="1">
+      <c r="CP1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CQ1" s="1">
         <v>14</v>
-      </c>
-      <c r="CQ1" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="CR1" s="1" t="s">
         <v>80</v>
@@ -1059,11 +1062,11 @@
       <c r="CV1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="CW1" s="1">
+      <c r="CW1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CX1" s="1">
         <v>15</v>
-      </c>
-      <c r="CX1" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="CY1" s="1" t="s">
         <v>86</v>
@@ -1080,11 +1083,11 @@
       <c r="DC1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="DD1" s="1">
+      <c r="DD1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DE1" s="1">
         <v>16</v>
-      </c>
-      <c r="DE1" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="DF1" s="1" t="s">
         <v>92</v>
@@ -1101,11 +1104,11 @@
       <c r="DJ1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="DK1" s="1">
+      <c r="DK1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="DL1" s="1">
         <v>17</v>
-      </c>
-      <c r="DL1" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="DM1" s="1" t="s">
         <v>98</v>
@@ -1122,11 +1125,11 @@
       <c r="DQ1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="DR1" s="1">
+      <c r="DR1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DS1" s="1">
         <v>18</v>
-      </c>
-      <c r="DS1" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="DT1" s="1" t="s">
         <v>104</v>
@@ -1143,11 +1146,11 @@
       <c r="DX1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="DY1" s="1">
+      <c r="DY1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DZ1" s="1">
         <v>19</v>
-      </c>
-      <c r="DZ1" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="EA1" s="1" t="s">
         <v>110</v>
@@ -1164,11 +1167,11 @@
       <c r="EE1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="EF1" s="1">
+      <c r="EF1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="EG1" s="1">
         <v>20</v>
-      </c>
-      <c r="EG1" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="EH1" s="1" t="s">
         <v>116</v>
@@ -1185,444 +1188,450 @@
       <c r="EL1" s="1" t="s">
         <v>120</v>
       </c>
+      <c r="EM1" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="2" spans="1:142">
+    <row r="2" spans="1:143">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>122</v>
       </c>
       <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
         <v>2</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>3</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>4</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>5</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>6</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>7</v>
       </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
       <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
         <v>2</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>3</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>4</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>5</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>6</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>7</v>
       </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
       <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
         <v>2</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>3</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>4</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>5</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>6</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>7</v>
       </c>
-      <c r="X2">
-        <v>1</v>
-      </c>
       <c r="Y2">
+        <v>1</v>
+      </c>
+      <c r="Z2">
         <v>2</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>3</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>4</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>5</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>6</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>7</v>
       </c>
-      <c r="AE2">
-        <v>1</v>
-      </c>
       <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
         <v>2</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>3</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>4</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>5</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>6</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>7</v>
       </c>
-      <c r="AL2">
-        <v>1</v>
-      </c>
       <c r="AM2">
+        <v>1</v>
+      </c>
+      <c r="AN2">
         <v>2</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>3</v>
       </c>
-      <c r="AO2">
+      <c r="AP2">
         <v>4</v>
       </c>
-      <c r="AP2">
+      <c r="AQ2">
         <v>5</v>
       </c>
-      <c r="AQ2">
+      <c r="AR2">
         <v>6</v>
       </c>
-      <c r="AR2">
+      <c r="AS2">
         <v>7</v>
       </c>
-      <c r="AS2">
-        <v>1</v>
-      </c>
       <c r="AT2">
+        <v>1</v>
+      </c>
+      <c r="AU2">
         <v>2</v>
       </c>
-      <c r="AU2">
+      <c r="AV2">
         <v>3</v>
       </c>
-      <c r="AV2">
+      <c r="AW2">
         <v>4</v>
       </c>
-      <c r="AW2">
+      <c r="AX2">
         <v>5</v>
       </c>
-      <c r="AX2">
+      <c r="AY2">
         <v>6</v>
       </c>
-      <c r="AY2">
+      <c r="AZ2">
         <v>7</v>
       </c>
-      <c r="AZ2">
-        <v>1</v>
-      </c>
       <c r="BA2">
+        <v>1</v>
+      </c>
+      <c r="BB2">
         <v>2</v>
       </c>
-      <c r="BB2">
+      <c r="BC2">
         <v>3</v>
       </c>
-      <c r="BC2">
+      <c r="BD2">
         <v>4</v>
       </c>
-      <c r="BD2">
+      <c r="BE2">
         <v>5</v>
       </c>
-      <c r="BE2">
+      <c r="BF2">
         <v>6</v>
       </c>
-      <c r="BF2">
+      <c r="BG2">
         <v>7</v>
       </c>
-      <c r="BG2">
-        <v>1</v>
-      </c>
       <c r="BH2">
+        <v>1</v>
+      </c>
+      <c r="BI2">
         <v>2</v>
       </c>
-      <c r="BI2">
+      <c r="BJ2">
         <v>3</v>
       </c>
-      <c r="BJ2">
+      <c r="BK2">
         <v>4</v>
       </c>
-      <c r="BK2">
+      <c r="BL2">
         <v>5</v>
       </c>
-      <c r="BL2">
+      <c r="BM2">
         <v>6</v>
       </c>
-      <c r="BM2">
+      <c r="BN2">
         <v>7</v>
       </c>
-      <c r="BN2">
-        <v>1</v>
-      </c>
       <c r="BO2">
+        <v>1</v>
+      </c>
+      <c r="BP2">
         <v>2</v>
       </c>
-      <c r="BP2">
+      <c r="BQ2">
         <v>3</v>
       </c>
-      <c r="BQ2">
+      <c r="BR2">
         <v>4</v>
       </c>
-      <c r="BR2">
+      <c r="BS2">
         <v>5</v>
       </c>
-      <c r="BS2">
+      <c r="BT2">
         <v>6</v>
       </c>
-      <c r="BT2">
+      <c r="BU2">
         <v>7</v>
       </c>
-      <c r="BU2">
-        <v>1</v>
-      </c>
       <c r="BV2">
+        <v>1</v>
+      </c>
+      <c r="BW2">
         <v>2</v>
       </c>
-      <c r="BW2">
+      <c r="BX2">
         <v>3</v>
       </c>
-      <c r="BX2">
+      <c r="BY2">
         <v>4</v>
       </c>
-      <c r="BY2">
+      <c r="BZ2">
         <v>5</v>
       </c>
-      <c r="BZ2">
+      <c r="CA2">
         <v>6</v>
       </c>
-      <c r="CA2">
+      <c r="CB2">
         <v>7</v>
       </c>
-      <c r="CB2">
-        <v>1</v>
-      </c>
       <c r="CC2">
+        <v>1</v>
+      </c>
+      <c r="CD2">
         <v>2</v>
       </c>
-      <c r="CD2">
+      <c r="CE2">
         <v>3</v>
       </c>
-      <c r="CE2">
+      <c r="CF2">
         <v>4</v>
       </c>
-      <c r="CF2">
+      <c r="CG2">
         <v>5</v>
       </c>
-      <c r="CG2">
+      <c r="CH2">
         <v>6</v>
       </c>
-      <c r="CH2">
+      <c r="CI2">
         <v>7</v>
       </c>
-      <c r="CI2">
-        <v>1</v>
-      </c>
       <c r="CJ2">
+        <v>1</v>
+      </c>
+      <c r="CK2">
         <v>2</v>
       </c>
-      <c r="CK2">
+      <c r="CL2">
         <v>3</v>
       </c>
-      <c r="CL2">
+      <c r="CM2">
         <v>4</v>
       </c>
-      <c r="CM2">
+      <c r="CN2">
         <v>5</v>
       </c>
-      <c r="CN2">
+      <c r="CO2">
         <v>6</v>
       </c>
-      <c r="CO2">
+      <c r="CP2">
         <v>7</v>
       </c>
-      <c r="CP2">
-        <v>1</v>
-      </c>
       <c r="CQ2">
+        <v>1</v>
+      </c>
+      <c r="CR2">
         <v>2</v>
       </c>
-      <c r="CR2">
+      <c r="CS2">
         <v>3</v>
       </c>
-      <c r="CS2">
+      <c r="CT2">
         <v>4</v>
       </c>
-      <c r="CT2">
+      <c r="CU2">
         <v>5</v>
       </c>
-      <c r="CU2">
+      <c r="CV2">
         <v>6</v>
       </c>
-      <c r="CV2">
+      <c r="CW2">
         <v>7</v>
       </c>
-      <c r="CW2">
-        <v>1</v>
-      </c>
       <c r="CX2">
+        <v>1</v>
+      </c>
+      <c r="CY2">
         <v>2</v>
       </c>
-      <c r="CY2">
+      <c r="CZ2">
         <v>3</v>
       </c>
-      <c r="CZ2">
+      <c r="DA2">
         <v>4</v>
       </c>
-      <c r="DA2">
+      <c r="DB2">
         <v>5</v>
       </c>
-      <c r="DB2">
+      <c r="DC2">
         <v>6</v>
       </c>
-      <c r="DC2">
+      <c r="DD2">
         <v>7</v>
       </c>
-      <c r="DD2">
-        <v>1</v>
-      </c>
       <c r="DE2">
+        <v>1</v>
+      </c>
+      <c r="DF2">
         <v>2</v>
       </c>
-      <c r="DF2">
+      <c r="DG2">
         <v>3</v>
       </c>
-      <c r="DG2">
+      <c r="DH2">
         <v>4</v>
       </c>
-      <c r="DH2">
+      <c r="DI2">
         <v>5</v>
       </c>
-      <c r="DI2">
+      <c r="DJ2">
         <v>6</v>
       </c>
-      <c r="DJ2">
+      <c r="DK2">
         <v>7</v>
       </c>
-      <c r="DK2">
-        <v>1</v>
-      </c>
       <c r="DL2">
+        <v>1</v>
+      </c>
+      <c r="DM2">
         <v>2</v>
       </c>
-      <c r="DM2">
+      <c r="DN2">
         <v>3</v>
       </c>
-      <c r="DN2">
+      <c r="DO2">
         <v>4</v>
       </c>
-      <c r="DO2">
+      <c r="DP2">
         <v>5</v>
       </c>
-      <c r="DP2">
+      <c r="DQ2">
         <v>6</v>
       </c>
-      <c r="DQ2">
+      <c r="DR2">
         <v>7</v>
       </c>
-      <c r="DR2">
-        <v>1</v>
-      </c>
       <c r="DS2">
+        <v>1</v>
+      </c>
+      <c r="DT2">
         <v>2</v>
       </c>
-      <c r="DT2">
+      <c r="DU2">
         <v>3</v>
       </c>
-      <c r="DU2">
+      <c r="DV2">
         <v>4</v>
       </c>
-      <c r="DV2">
+      <c r="DW2">
         <v>5</v>
       </c>
-      <c r="DW2">
+      <c r="DX2">
         <v>6</v>
       </c>
-      <c r="DX2">
+      <c r="DY2">
         <v>7</v>
       </c>
-      <c r="DY2">
-        <v>1</v>
-      </c>
       <c r="DZ2">
+        <v>1</v>
+      </c>
+      <c r="EA2">
         <v>2</v>
       </c>
-      <c r="EA2">
+      <c r="EB2">
         <v>3</v>
       </c>
-      <c r="EB2">
+      <c r="EC2">
         <v>4</v>
       </c>
-      <c r="EC2">
+      <c r="ED2">
         <v>5</v>
       </c>
-      <c r="ED2">
+      <c r="EE2">
         <v>6</v>
       </c>
-      <c r="EE2">
+      <c r="EF2">
         <v>7</v>
       </c>
-      <c r="EF2">
-        <v>1</v>
-      </c>
       <c r="EG2">
+        <v>1</v>
+      </c>
+      <c r="EH2">
         <v>2</v>
       </c>
-      <c r="EH2">
+      <c r="EI2">
         <v>3</v>
       </c>
-      <c r="EI2">
+      <c r="EJ2">
         <v>4</v>
       </c>
-      <c r="EJ2">
+      <c r="EK2">
         <v>5</v>
       </c>
-      <c r="EK2">
+      <c r="EL2">
         <v>6</v>
       </c>
-      <c r="EL2">
+      <c r="EM2">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:142">
+    <row r="3" spans="1:143">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>123</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1631,10 +1640,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1652,10 +1661,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -1673,16 +1682,16 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -1694,16 +1703,16 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE3">
         <v>0</v>
@@ -1715,16 +1724,16 @@
         <v>0</v>
       </c>
       <c r="AH3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -1736,16 +1745,16 @@
         <v>0</v>
       </c>
       <c r="AO3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS3">
         <v>0</v>
@@ -1757,16 +1766,16 @@
         <v>0</v>
       </c>
       <c r="AV3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ3">
         <v>0</v>
@@ -1778,16 +1787,16 @@
         <v>0</v>
       </c>
       <c r="BC3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG3">
         <v>0</v>
@@ -1799,16 +1808,16 @@
         <v>0</v>
       </c>
       <c r="BJ3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN3">
         <v>0</v>
@@ -1820,16 +1829,16 @@
         <v>0</v>
       </c>
       <c r="BQ3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU3">
         <v>0</v>
@@ -1841,16 +1850,16 @@
         <v>0</v>
       </c>
       <c r="BX3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB3">
         <v>0</v>
@@ -1862,16 +1871,16 @@
         <v>0</v>
       </c>
       <c r="CE3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI3">
         <v>0</v>
@@ -1883,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="CL3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP3">
         <v>0</v>
@@ -1904,10 +1913,10 @@
         <v>0</v>
       </c>
       <c r="CS3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU3">
         <v>0</v>
@@ -1925,10 +1934,10 @@
         <v>0</v>
       </c>
       <c r="CZ3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DA3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DB3">
         <v>0</v>
@@ -1946,10 +1955,10 @@
         <v>0</v>
       </c>
       <c r="DG3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DH3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DI3">
         <v>0</v>
@@ -2041,16 +2050,19 @@
       <c r="EL3">
         <v>0</v>
       </c>
+      <c r="EM3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:142">
+    <row r="4" spans="1:143">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>124</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -2059,10 +2071,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -2080,10 +2092,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -2101,16 +2113,16 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X4">
         <v>0</v>
@@ -2122,16 +2134,16 @@
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE4">
         <v>0</v>
@@ -2143,16 +2155,16 @@
         <v>0</v>
       </c>
       <c r="AH4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL4">
         <v>0</v>
@@ -2164,16 +2176,16 @@
         <v>0</v>
       </c>
       <c r="AO4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS4">
         <v>0</v>
@@ -2185,16 +2197,16 @@
         <v>0</v>
       </c>
       <c r="AV4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ4">
         <v>0</v>
@@ -2206,16 +2218,16 @@
         <v>0</v>
       </c>
       <c r="BC4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG4">
         <v>0</v>
@@ -2227,16 +2239,16 @@
         <v>0</v>
       </c>
       <c r="BJ4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN4">
         <v>0</v>
@@ -2248,16 +2260,16 @@
         <v>0</v>
       </c>
       <c r="BQ4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU4">
         <v>0</v>
@@ -2269,16 +2281,16 @@
         <v>0</v>
       </c>
       <c r="BX4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB4">
         <v>0</v>
@@ -2290,16 +2302,16 @@
         <v>0</v>
       </c>
       <c r="CE4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI4">
         <v>0</v>
@@ -2311,16 +2323,16 @@
         <v>0</v>
       </c>
       <c r="CL4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP4">
         <v>0</v>
@@ -2332,10 +2344,10 @@
         <v>0</v>
       </c>
       <c r="CS4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU4">
         <v>0</v>
@@ -2353,10 +2365,10 @@
         <v>0</v>
       </c>
       <c r="CZ4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DA4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DB4">
         <v>0</v>
@@ -2374,10 +2386,10 @@
         <v>0</v>
       </c>
       <c r="DG4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DH4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DI4">
         <v>0</v>
@@ -2469,25 +2481,28 @@
       <c r="EL4">
         <v>0</v>
       </c>
+      <c r="EM4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:142">
+    <row r="5" spans="1:143">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>125</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -2505,10 +2520,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -2526,19 +2541,19 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X5">
         <v>0</v>
@@ -2547,19 +2562,19 @@
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB5">
         <v>0</v>
       </c>
       <c r="AC5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE5">
         <v>0</v>
@@ -2568,19 +2583,19 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI5">
         <v>0</v>
       </c>
       <c r="AJ5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL5">
         <v>0</v>
@@ -2589,19 +2604,19 @@
         <v>0</v>
       </c>
       <c r="AN5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP5">
         <v>0</v>
       </c>
       <c r="AQ5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS5">
         <v>0</v>
@@ -2610,19 +2625,19 @@
         <v>0</v>
       </c>
       <c r="AU5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW5">
         <v>0</v>
       </c>
       <c r="AX5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ5">
         <v>0</v>
@@ -2631,19 +2646,19 @@
         <v>0</v>
       </c>
       <c r="BB5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD5">
         <v>0</v>
       </c>
       <c r="BE5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG5">
         <v>0</v>
@@ -2655,16 +2670,16 @@
         <v>0</v>
       </c>
       <c r="BJ5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN5">
         <v>0</v>
@@ -2676,16 +2691,16 @@
         <v>0</v>
       </c>
       <c r="BQ5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU5">
         <v>0</v>
@@ -2697,16 +2712,16 @@
         <v>0</v>
       </c>
       <c r="BX5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB5">
         <v>0</v>
@@ -2718,16 +2733,16 @@
         <v>0</v>
       </c>
       <c r="CE5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI5">
         <v>0</v>
@@ -2739,16 +2754,16 @@
         <v>0</v>
       </c>
       <c r="CL5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP5">
         <v>0</v>
@@ -2760,10 +2775,10 @@
         <v>0</v>
       </c>
       <c r="CS5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU5">
         <v>0</v>
@@ -2781,10 +2796,10 @@
         <v>0</v>
       </c>
       <c r="CZ5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DA5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DB5">
         <v>0</v>
@@ -2802,10 +2817,10 @@
         <v>0</v>
       </c>
       <c r="DG5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DH5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DI5">
         <v>0</v>
@@ -2897,25 +2912,28 @@
       <c r="EL5">
         <v>0</v>
       </c>
+      <c r="EM5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:142">
+    <row r="6" spans="1:143">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>125</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>126</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -2933,10 +2951,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -2954,19 +2972,19 @@
         <v>0</v>
       </c>
       <c r="S6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6">
         <v>0</v>
       </c>
       <c r="V6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X6">
         <v>0</v>
@@ -2975,19 +2993,19 @@
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB6">
         <v>0</v>
       </c>
       <c r="AC6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE6">
         <v>0</v>
@@ -2996,19 +3014,19 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI6">
         <v>0</v>
       </c>
       <c r="AJ6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL6">
         <v>0</v>
@@ -3017,19 +3035,19 @@
         <v>0</v>
       </c>
       <c r="AN6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP6">
         <v>0</v>
       </c>
       <c r="AQ6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS6">
         <v>0</v>
@@ -3038,19 +3056,19 @@
         <v>0</v>
       </c>
       <c r="AU6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW6">
         <v>0</v>
       </c>
       <c r="AX6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ6">
         <v>0</v>
@@ -3059,19 +3077,19 @@
         <v>0</v>
       </c>
       <c r="BB6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD6">
         <v>0</v>
       </c>
       <c r="BE6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG6">
         <v>0</v>
@@ -3083,16 +3101,16 @@
         <v>0</v>
       </c>
       <c r="BJ6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN6">
         <v>0</v>
@@ -3104,16 +3122,16 @@
         <v>0</v>
       </c>
       <c r="BQ6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU6">
         <v>0</v>
@@ -3125,16 +3143,16 @@
         <v>0</v>
       </c>
       <c r="BX6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB6">
         <v>0</v>
@@ -3146,16 +3164,16 @@
         <v>0</v>
       </c>
       <c r="CE6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI6">
         <v>0</v>
@@ -3167,16 +3185,16 @@
         <v>0</v>
       </c>
       <c r="CL6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP6">
         <v>0</v>
@@ -3188,10 +3206,10 @@
         <v>0</v>
       </c>
       <c r="CS6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU6">
         <v>0</v>
@@ -3209,10 +3227,10 @@
         <v>0</v>
       </c>
       <c r="CZ6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DA6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DB6">
         <v>0</v>
@@ -3230,10 +3248,10 @@
         <v>0</v>
       </c>
       <c r="DG6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DH6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DI6">
         <v>0</v>
@@ -3325,28 +3343,31 @@
       <c r="EL6">
         <v>0</v>
       </c>
+      <c r="EM6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:142">
+    <row r="7" spans="1:143">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>127</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -3358,16 +3379,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -3379,16 +3400,16 @@
         <v>0</v>
       </c>
       <c r="R7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7">
         <v>0</v>
@@ -3400,16 +3421,16 @@
         <v>0</v>
       </c>
       <c r="Y7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC7">
         <v>0</v>
@@ -3421,16 +3442,16 @@
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ7">
         <v>0</v>
@@ -3442,16 +3463,16 @@
         <v>0</v>
       </c>
       <c r="AM7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ7">
         <v>0</v>
@@ -3463,16 +3484,16 @@
         <v>0</v>
       </c>
       <c r="AT7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX7">
         <v>0</v>
@@ -3484,16 +3505,16 @@
         <v>0</v>
       </c>
       <c r="BA7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE7">
         <v>0</v>
@@ -3505,16 +3526,16 @@
         <v>0</v>
       </c>
       <c r="BH7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL7">
         <v>0</v>
@@ -3550,16 +3571,16 @@
         <v>0</v>
       </c>
       <c r="BW7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA7">
         <v>0</v>
@@ -3571,10 +3592,10 @@
         <v>0</v>
       </c>
       <c r="CD7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF7">
         <v>0</v>
@@ -3592,10 +3613,10 @@
         <v>0</v>
       </c>
       <c r="CK7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CM7">
         <v>0</v>
@@ -3613,10 +3634,10 @@
         <v>0</v>
       </c>
       <c r="CR7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CS7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CT7">
         <v>0</v>
@@ -3753,8 +3774,11 @@
       <c r="EL7">
         <v>0</v>
       </c>
+      <c r="EM7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:142">
+    <row r="8" spans="1:143">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -3762,19 +3786,19 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -3786,16 +3810,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -3807,16 +3831,16 @@
         <v>0</v>
       </c>
       <c r="R8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8">
         <v>0</v>
@@ -3828,16 +3852,16 @@
         <v>0</v>
       </c>
       <c r="Y8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC8">
         <v>0</v>
@@ -3849,16 +3873,16 @@
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ8">
         <v>0</v>
@@ -3870,16 +3894,16 @@
         <v>0</v>
       </c>
       <c r="AM8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ8">
         <v>0</v>
@@ -3891,16 +3915,16 @@
         <v>0</v>
       </c>
       <c r="AT8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX8">
         <v>0</v>
@@ -3912,16 +3936,16 @@
         <v>0</v>
       </c>
       <c r="BA8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE8">
         <v>0</v>
@@ -3933,16 +3957,16 @@
         <v>0</v>
       </c>
       <c r="BH8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL8">
         <v>0</v>
@@ -3978,16 +4002,16 @@
         <v>0</v>
       </c>
       <c r="BW8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA8">
         <v>0</v>
@@ -3999,10 +4023,10 @@
         <v>0</v>
       </c>
       <c r="CD8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF8">
         <v>0</v>
@@ -4020,10 +4044,10 @@
         <v>0</v>
       </c>
       <c r="CK8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CM8">
         <v>0</v>
@@ -4041,10 +4065,10 @@
         <v>0</v>
       </c>
       <c r="CR8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CS8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CT8">
         <v>0</v>
@@ -4181,16 +4205,19 @@
       <c r="EL8">
         <v>0</v>
       </c>
+      <c r="EM8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:142">
+    <row r="9" spans="1:143">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>127</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>128</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -4609,8 +4636,11 @@
       <c r="EL9">
         <v>0</v>
       </c>
+      <c r="EM9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:142">
+    <row r="10" spans="1:143">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -4618,7 +4648,7 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -5037,8 +5067,11 @@
       <c r="EL10">
         <v>0</v>
       </c>
+      <c r="EM10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:142">
+    <row r="11" spans="1:143">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -5046,7 +5079,7 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -5465,8 +5498,11 @@
       <c r="EL11">
         <v>0</v>
       </c>
+      <c r="EM11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:142">
+    <row r="12" spans="1:143">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -5474,7 +5510,7 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -5893,8 +5929,11 @@
       <c r="EL12">
         <v>0</v>
       </c>
+      <c r="EM12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:142">
+    <row r="13" spans="1:143">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -5902,7 +5941,7 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -6321,8 +6360,11 @@
       <c r="EL13">
         <v>0</v>
       </c>
+      <c r="EM13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:142">
+    <row r="14" spans="1:143">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -6330,7 +6372,7 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -6749,54 +6791,87 @@
       <c r="EL14">
         <v>0</v>
       </c>
+      <c r="EM14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:142">
+    <row r="15" spans="1:143">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>13</v>
+      </c>
     </row>
-    <row r="16" spans="1:142">
+    <row r="16" spans="1:143">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>14</v>
+      </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>15</v>
+      </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>16</v>
+      </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>17</v>
+      </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>18</v>
+      </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>19</v>
+      </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>20</v>
+      </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>21</v>
+      </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:2">
       <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
         <v>22</v>
       </c>
     </row>
